--- a/code/pythoncode/mediawiki/data/wiki_category.xlsx
+++ b/code/pythoncode/mediawiki/data/wiki_category.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\python\code\pythoncode\mediawiki\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB68D35-9E8D-4A29-9E25-B32A2A78F0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BEE405-B0FD-4342-A9B6-0EA7B522FEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="1650" windowWidth="23220" windowHeight="12165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="3210" windowWidth="23220" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="分类" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>transCAD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>这是交通分类页面内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这是transCAD分类页面内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,6 +81,22 @@
   </si>
   <si>
     <t>test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransCAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是TransCAD分类页面内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是水利分类页面内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70710F3-171A-4C9E-B185-87BAB357DD85}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -457,7 +465,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -465,15 +473,23 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -487,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -512,15 +528,15 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -529,18 +545,18 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
